--- a/Processed/country_stat.xlsx
+++ b/Processed/country_stat.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Infrastructure\Material composition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF9FB22-A1FC-45DA-9165-2558182ABF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{356FB749-1DBD-4F21-A2BB-D06C7B1EE6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="440" windowWidth="12000" windowHeight="13640" xr2:uid="{ACAEE8BF-CFEC-4AEC-942A-E0C3A09F9AD9}"/>
+    <workbookView xWindow="14805" yWindow="990" windowWidth="14370" windowHeight="19110" xr2:uid="{ACAEE8BF-CFEC-4AEC-942A-E0C3A09F9AD9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Coversheet" sheetId="3" r:id="rId1"/>
+    <sheet name="Country Statistics" sheetId="1" r:id="rId2"/>
+    <sheet name="Country codes" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="944">
   <si>
     <t>GRIP-region</t>
   </si>
@@ -2833,13 +2834,65 @@
   </si>
   <si>
     <t>ALA</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Country statistics v.1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2863,28 +2916,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2892,62 +2967,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2" xr:uid="{FAB64F1E-6D19-466F-8926-70E63C42ADB7}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="3" xr:uid="{541F1A12-2A6F-4557-A410-79E571C42D85}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2960,6 +3007,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C9517E-E7D0-4ED5-91BB-FF6DB9D98390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB90CA9-79B7-42C1-BD27-938D40ADD9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3334,16 +3508,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97AB562-5F20-41D5-97AD-E7EA4E77C3D2}">
-  <dimension ref="A1:H177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1395E42E-6CB1-4853-867B-8D33375CEFAB}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B12:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="C12" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="C14" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="C16" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="C18" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="C21" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>942</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{811ED726-C1E6-497A-8BDA-1664B5C5FE80}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97AB562-5F20-41D5-97AD-E7EA4E77C3D2}">
+  <dimension ref="A1:H180"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -3369,11 +3633,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>6</v>
       </c>
       <c r="C2">
@@ -3393,15 +3657,15 @@
         <v>AFG</v>
       </c>
       <c r="H2" t="str">
-        <f>_xlfn.XLOOKUP(G2,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G2,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>AF</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>4</v>
       </c>
       <c r="C3">
@@ -3421,15 +3685,15 @@
         <v>ALB</v>
       </c>
       <c r="H3" t="str">
-        <f>_xlfn.XLOOKUP(G3,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G3,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>AL</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4">
@@ -3449,15 +3713,15 @@
         <v>DZA</v>
       </c>
       <c r="H4" t="str">
-        <f>_xlfn.XLOOKUP(G4,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G4,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>DZ</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5">
@@ -3477,15 +3741,15 @@
         <v>AND</v>
       </c>
       <c r="H5" t="str">
-        <f>_xlfn.XLOOKUP(G5,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G5,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>AD</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6">
@@ -3505,15 +3769,15 @@
         <v>AGO</v>
       </c>
       <c r="H6" t="str">
-        <f>_xlfn.XLOOKUP(G6,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G6,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>AO</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7">
@@ -3533,15 +3797,15 @@
         <v>ARG</v>
       </c>
       <c r="H7" t="str">
-        <f>_xlfn.XLOOKUP(G7,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G7,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>AR</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8">
@@ -3561,15 +3825,15 @@
         <v>ARM</v>
       </c>
       <c r="H8" t="str">
-        <f>_xlfn.XLOOKUP(G8,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G8,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>AM</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9">
@@ -3589,15 +3853,15 @@
         <v>AUS</v>
       </c>
       <c r="H9" t="str">
-        <f>_xlfn.XLOOKUP(G9,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G9,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>AU</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10">
@@ -3617,15 +3881,15 @@
         <v>AUT</v>
       </c>
       <c r="H10" t="str">
-        <f>_xlfn.XLOOKUP(G10,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G10,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>AT</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11">
@@ -3645,15 +3909,15 @@
         <v>AZE</v>
       </c>
       <c r="H11" t="str">
-        <f>_xlfn.XLOOKUP(G11,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G11,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>AZ</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12">
@@ -3673,15 +3937,15 @@
         <v>BHS</v>
       </c>
       <c r="H12" t="str">
-        <f>_xlfn.XLOOKUP(G12,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G12,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BS</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>6</v>
       </c>
       <c r="C13">
@@ -3701,15 +3965,15 @@
         <v>BGD</v>
       </c>
       <c r="H13" t="str">
-        <f>_xlfn.XLOOKUP(G13,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G13,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BD</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>5</v>
       </c>
       <c r="C14">
@@ -3729,15 +3993,15 @@
         <v>BLR</v>
       </c>
       <c r="H14" t="str">
-        <f>_xlfn.XLOOKUP(G14,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G14,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BY</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>4</v>
       </c>
       <c r="C15">
@@ -3757,15 +4021,15 @@
         <v>BEL</v>
       </c>
       <c r="H15" t="str">
-        <f>_xlfn.XLOOKUP(G15,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G15,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BE</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>2</v>
       </c>
       <c r="C16">
@@ -3785,15 +4049,15 @@
         <v>BLZ</v>
       </c>
       <c r="H16" t="str">
-        <f>_xlfn.XLOOKUP(G16,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G16,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BZ</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>3</v>
       </c>
       <c r="C17">
@@ -3813,15 +4077,15 @@
         <v>BEN</v>
       </c>
       <c r="H17" t="str">
-        <f>_xlfn.XLOOKUP(G17,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G17,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BJ</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>6</v>
       </c>
       <c r="C18">
@@ -3841,15 +4105,15 @@
         <v>BTN</v>
       </c>
       <c r="H18" t="str">
-        <f>_xlfn.XLOOKUP(G18,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G18,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BT</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>2</v>
       </c>
       <c r="C19">
@@ -3869,15 +4133,15 @@
         <v>BOL</v>
       </c>
       <c r="H19" t="str">
-        <f>_xlfn.XLOOKUP(G19,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G19,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BO</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>4</v>
       </c>
       <c r="C20">
@@ -3897,15 +4161,15 @@
         <v>BIH</v>
       </c>
       <c r="H20" t="str">
-        <f>_xlfn.XLOOKUP(G20,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G20,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BA</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>3</v>
       </c>
       <c r="C21">
@@ -3925,15 +4189,15 @@
         <v>BWA</v>
       </c>
       <c r="H21" t="str">
-        <f>_xlfn.XLOOKUP(G21,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G21,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BW</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>2</v>
       </c>
       <c r="C22">
@@ -3953,15 +4217,15 @@
         <v>BRA</v>
       </c>
       <c r="H22" t="str">
-        <f>_xlfn.XLOOKUP(G22,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G22,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BR</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>4</v>
       </c>
       <c r="C23">
@@ -3981,15 +4245,15 @@
         <v>BGR</v>
       </c>
       <c r="H23" t="str">
-        <f>_xlfn.XLOOKUP(G23,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G23,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BG</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>3</v>
       </c>
       <c r="C24">
@@ -4009,15 +4273,15 @@
         <v>BFA</v>
       </c>
       <c r="H24" t="str">
-        <f>_xlfn.XLOOKUP(G24,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G24,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BF</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>3</v>
       </c>
       <c r="C25">
@@ -4037,15 +4301,15 @@
         <v>BDI</v>
       </c>
       <c r="H25" t="str">
-        <f>_xlfn.XLOOKUP(G25,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G25,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>BI</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>6</v>
       </c>
       <c r="C26">
@@ -4065,15 +4329,15 @@
         <v>KHM</v>
       </c>
       <c r="H26" t="str">
-        <f>_xlfn.XLOOKUP(G26,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G26,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>KH</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>3</v>
       </c>
       <c r="C27">
@@ -4093,15 +4357,15 @@
         <v>CMR</v>
       </c>
       <c r="H27" t="str">
-        <f>_xlfn.XLOOKUP(G27,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G27,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CM</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28">
@@ -4121,15 +4385,15 @@
         <v>CAN</v>
       </c>
       <c r="H28" t="str">
-        <f>_xlfn.XLOOKUP(G28,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G28,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>3</v>
       </c>
       <c r="C29">
@@ -4149,15 +4413,15 @@
         <v>CAF</v>
       </c>
       <c r="H29" t="str">
-        <f>_xlfn.XLOOKUP(G29,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G29,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CF</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>3</v>
       </c>
       <c r="C30">
@@ -4177,15 +4441,15 @@
         <v>TCD</v>
       </c>
       <c r="H30" t="str">
-        <f>_xlfn.XLOOKUP(G30,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G30,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TD</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>2</v>
       </c>
       <c r="C31">
@@ -4205,15 +4469,15 @@
         <v>CHL</v>
       </c>
       <c r="H31" t="str">
-        <f>_xlfn.XLOOKUP(G31,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G31,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CL</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>6</v>
       </c>
       <c r="C32">
@@ -4233,15 +4497,15 @@
         <v>CHN</v>
       </c>
       <c r="H32" t="str">
-        <f>_xlfn.XLOOKUP(G32,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G32,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CN</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>2</v>
       </c>
       <c r="C33">
@@ -4261,11 +4525,11 @@
         <v>COL</v>
       </c>
       <c r="H33" t="str">
-        <f>_xlfn.XLOOKUP(G33,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G33,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CO</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -4289,15 +4553,15 @@
         <v>COM</v>
       </c>
       <c r="H34" t="str">
-        <f>_xlfn.XLOOKUP(G34,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G34,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>KM</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>3</v>
       </c>
       <c r="C35">
@@ -4317,11 +4581,11 @@
         <v>COG</v>
       </c>
       <c r="H35" t="str">
-        <f>_xlfn.XLOOKUP(G35,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G35,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CG</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -4345,15 +4609,15 @@
         <v>COD</v>
       </c>
       <c r="H36" t="str">
-        <f>_xlfn.XLOOKUP(G36,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G36,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CD</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>4</v>
       </c>
       <c r="C37">
@@ -4373,15 +4637,15 @@
         <v>HRV</v>
       </c>
       <c r="H37" t="str">
-        <f>_xlfn.XLOOKUP(G37,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G37,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>HR</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>2</v>
       </c>
       <c r="C38">
@@ -4401,15 +4665,15 @@
         <v>CUB</v>
       </c>
       <c r="H38" t="str">
-        <f>_xlfn.XLOOKUP(G38,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G38,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CU</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>4</v>
       </c>
       <c r="C39">
@@ -4429,15 +4693,15 @@
         <v>CYP</v>
       </c>
       <c r="H39" t="str">
-        <f>_xlfn.XLOOKUP(G39,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G39,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CY</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>4</v>
       </c>
       <c r="C40">
@@ -4457,15 +4721,15 @@
         <v>CZE</v>
       </c>
       <c r="H40" t="str">
-        <f>_xlfn.XLOOKUP(G40,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G40,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CZ</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>4</v>
       </c>
       <c r="C41">
@@ -4485,15 +4749,15 @@
         <v>DNK</v>
       </c>
       <c r="H41" t="str">
-        <f>_xlfn.XLOOKUP(G41,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G41,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>DK</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>3</v>
       </c>
       <c r="C42">
@@ -4513,15 +4777,15 @@
         <v>DJI</v>
       </c>
       <c r="H42" t="str">
-        <f>_xlfn.XLOOKUP(G42,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G42,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>DJ</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>2</v>
       </c>
       <c r="C43">
@@ -4541,15 +4805,15 @@
         <v>ECU</v>
       </c>
       <c r="H43" t="str">
-        <f>_xlfn.XLOOKUP(G43,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G43,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>EC</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>3</v>
       </c>
       <c r="C44">
@@ -4569,11 +4833,11 @@
         <v>EGY</v>
       </c>
       <c r="H44" t="str">
-        <f>_xlfn.XLOOKUP(G44,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G44,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>EG</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -4597,15 +4861,15 @@
         <v>GNQ</v>
       </c>
       <c r="H45" t="str">
-        <f>_xlfn.XLOOKUP(G45,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G45,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>GQ</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>3</v>
       </c>
       <c r="C46">
@@ -4625,15 +4889,15 @@
         <v>ERI</v>
       </c>
       <c r="H46" t="str">
-        <f>_xlfn.XLOOKUP(G46,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G46,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>ER</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4">
         <v>4</v>
       </c>
       <c r="C47">
@@ -4653,15 +4917,15 @@
         <v>EST</v>
       </c>
       <c r="H47" t="str">
-        <f>_xlfn.XLOOKUP(G47,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G47,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>EE</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="4">
         <v>3</v>
       </c>
       <c r="C48">
@@ -4681,11 +4945,11 @@
         <v>ETH</v>
       </c>
       <c r="H48" t="str">
-        <f>_xlfn.XLOOKUP(G48,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G48,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>ET</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -4709,15 +4973,15 @@
         <v>FRO</v>
       </c>
       <c r="H49" t="str">
-        <f>_xlfn.XLOOKUP(G49,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G49,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>FO</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="4">
         <v>7</v>
       </c>
       <c r="C50">
@@ -4737,15 +5001,15 @@
         <v>FJI</v>
       </c>
       <c r="H50" t="str">
-        <f>_xlfn.XLOOKUP(G50,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G50,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>FJ</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>4</v>
       </c>
       <c r="C51">
@@ -4765,15 +5029,15 @@
         <v>FIN</v>
       </c>
       <c r="H51" t="str">
-        <f>_xlfn.XLOOKUP(G51,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G51,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>FI</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="4">
         <v>4</v>
       </c>
       <c r="C52">
@@ -4793,15 +5057,15 @@
         <v>FRA</v>
       </c>
       <c r="H52" t="str">
-        <f>_xlfn.XLOOKUP(G52,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G52,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>FR</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4">
         <v>3</v>
       </c>
       <c r="C53">
@@ -4821,15 +5085,15 @@
         <v>GAB</v>
       </c>
       <c r="H53" t="str">
-        <f>_xlfn.XLOOKUP(G53,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G53,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>GA</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>5</v>
       </c>
       <c r="C54">
@@ -4845,11 +5109,11 @@
         <v>2094935000000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="4">
         <v>4</v>
       </c>
       <c r="C55">
@@ -4869,15 +5133,15 @@
         <v>GEO</v>
       </c>
       <c r="H55" t="str">
-        <f>_xlfn.XLOOKUP(G55,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G55,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>GE</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="4">
         <v>4</v>
       </c>
       <c r="C56">
@@ -4897,15 +5161,15 @@
         <v>DEU</v>
       </c>
       <c r="H56" t="str">
-        <f>_xlfn.XLOOKUP(G56,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G56,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>DE</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <v>3</v>
       </c>
       <c r="C57">
@@ -4925,15 +5189,15 @@
         <v>GHA</v>
       </c>
       <c r="H57" t="str">
-        <f>_xlfn.XLOOKUP(G57,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G57,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>GH</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>4</v>
       </c>
       <c r="C58">
@@ -4949,11 +5213,11 @@
         <v>2423737000000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4">
         <v>4</v>
       </c>
       <c r="C59">
@@ -4973,15 +5237,15 @@
         <v>GRC</v>
       </c>
       <c r="H59" t="str">
-        <f>_xlfn.XLOOKUP(G59,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G59,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>GR</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="4">
         <v>1</v>
       </c>
       <c r="C60">
@@ -5001,15 +5265,15 @@
         <v>GRL</v>
       </c>
       <c r="H60" t="str">
-        <f>_xlfn.XLOOKUP(G60,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G60,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>GL</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <v>2</v>
       </c>
       <c r="C61">
@@ -5029,15 +5293,15 @@
         <v>GTM</v>
       </c>
       <c r="H61" t="str">
-        <f>_xlfn.XLOOKUP(G61,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G61,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>GT</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="4">
         <v>3</v>
       </c>
       <c r="C62">
@@ -5057,15 +5321,15 @@
         <v>GIN</v>
       </c>
       <c r="H62" t="str">
-        <f>_xlfn.XLOOKUP(G62,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G62,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>GN</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="4">
         <v>3</v>
       </c>
       <c r="C63">
@@ -5085,15 +5349,15 @@
         <v>GNB</v>
       </c>
       <c r="H63" t="str">
-        <f>_xlfn.XLOOKUP(G63,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G63,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>GW</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>2</v>
       </c>
       <c r="C64">
@@ -5109,11 +5373,11 @@
         <v>147869000000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4">
         <v>4</v>
       </c>
       <c r="C65">
@@ -5133,15 +5397,15 @@
         <v>HUN</v>
       </c>
       <c r="H65" t="str">
-        <f>_xlfn.XLOOKUP(G65,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G65,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>HU</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="4">
         <v>4</v>
       </c>
       <c r="C66">
@@ -5161,15 +5425,15 @@
         <v>ISL</v>
       </c>
       <c r="H66" t="str">
-        <f>_xlfn.XLOOKUP(G66,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G66,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>IS</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="4">
         <v>6</v>
       </c>
       <c r="C67">
@@ -5189,15 +5453,15 @@
         <v>IND</v>
       </c>
       <c r="H67" t="str">
-        <f>_xlfn.XLOOKUP(G67,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G67,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>IN</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="4">
         <v>6</v>
       </c>
       <c r="C68">
@@ -5217,15 +5481,15 @@
         <v>IDN</v>
       </c>
       <c r="H68" t="str">
-        <f>_xlfn.XLOOKUP(G68,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G68,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>ID</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="4">
         <v>5</v>
       </c>
       <c r="C69">
@@ -5245,15 +5509,15 @@
         <v>IRN</v>
       </c>
       <c r="H69" t="str">
-        <f>_xlfn.XLOOKUP(G69,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G69,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>IR</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="4">
         <v>5</v>
       </c>
       <c r="C70">
@@ -5273,15 +5537,15 @@
         <v>IRQ</v>
       </c>
       <c r="H70" t="str">
-        <f>_xlfn.XLOOKUP(G70,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G70,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>IQ</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>4</v>
       </c>
       <c r="C71">
@@ -5297,11 +5561,11 @@
         <v>657387000000</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>5</v>
       </c>
       <c r="C72">
@@ -5317,11 +5581,11 @@
         <v>558921000000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="4">
         <v>4</v>
       </c>
       <c r="C73">
@@ -5341,15 +5605,15 @@
         <v>ITA</v>
       </c>
       <c r="H73" t="str">
-        <f>_xlfn.XLOOKUP(G73,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G73,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>IT</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>3</v>
       </c>
       <c r="C74">
@@ -5369,15 +5633,15 @@
         <v>CIV</v>
       </c>
       <c r="H74" t="str">
-        <f>_xlfn.XLOOKUP(G74,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G74,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CI</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="4">
         <v>2</v>
       </c>
       <c r="C75">
@@ -5397,15 +5661,15 @@
         <v>JAM</v>
       </c>
       <c r="H75" t="str">
-        <f>_xlfn.XLOOKUP(G75,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G75,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>JM</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="4">
         <v>6</v>
       </c>
       <c r="C76">
@@ -5425,15 +5689,15 @@
         <v>JPN</v>
       </c>
       <c r="H76" t="str">
-        <f>_xlfn.XLOOKUP(G76,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G76,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>JP</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="4">
         <v>5</v>
       </c>
       <c r="C77">
@@ -5453,15 +5717,15 @@
         <v>JOR</v>
       </c>
       <c r="H77" t="str">
-        <f>_xlfn.XLOOKUP(G77,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G77,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>JO</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="4">
         <v>5</v>
       </c>
       <c r="C78">
@@ -5481,15 +5745,15 @@
         <v>KAZ</v>
       </c>
       <c r="H78" t="str">
-        <f>_xlfn.XLOOKUP(G78,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G78,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>KZ</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="4">
         <v>3</v>
       </c>
       <c r="C79">
@@ -5509,15 +5773,15 @@
         <v>KEN</v>
       </c>
       <c r="H79" t="str">
-        <f>_xlfn.XLOOKUP(G79,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G79,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>KE</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="4">
         <v>7</v>
       </c>
       <c r="C80">
@@ -5537,15 +5801,15 @@
         <v>KIR</v>
       </c>
       <c r="H80" t="str">
-        <f>_xlfn.XLOOKUP(G80,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G80,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>KI</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="4">
         <v>4</v>
       </c>
       <c r="C81">
@@ -5565,11 +5829,11 @@
         <v>XKX</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>5</v>
       </c>
       <c r="C82">
@@ -5589,11 +5853,11 @@
         <v>KGZ</v>
       </c>
       <c r="H82" t="str">
-        <f>_xlfn.XLOOKUP(G82,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G82,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>KG</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -5617,15 +5881,15 @@
         <v>LAO</v>
       </c>
       <c r="H83" t="str">
-        <f>_xlfn.XLOOKUP(G83,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G83,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>LA</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="4">
         <v>4</v>
       </c>
       <c r="C84">
@@ -5645,15 +5909,15 @@
         <v>LVA</v>
       </c>
       <c r="H84" t="str">
-        <f>_xlfn.XLOOKUP(G84,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G84,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>LV</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="4">
         <v>5</v>
       </c>
       <c r="C85">
@@ -5673,15 +5937,15 @@
         <v>LBN</v>
       </c>
       <c r="H85" t="str">
-        <f>_xlfn.XLOOKUP(G85,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G85,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>LB</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="4">
         <v>3</v>
       </c>
       <c r="C86">
@@ -5701,15 +5965,15 @@
         <v>LSO</v>
       </c>
       <c r="H86" t="str">
-        <f>_xlfn.XLOOKUP(G86,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G86,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>LS</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="4">
         <v>3</v>
       </c>
       <c r="C87">
@@ -5729,15 +5993,15 @@
         <v>LBR</v>
       </c>
       <c r="H87" t="str">
-        <f>_xlfn.XLOOKUP(G87,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G87,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>LR</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="4">
         <v>3</v>
       </c>
       <c r="C88">
@@ -5757,15 +6021,15 @@
         <v>LBY</v>
       </c>
       <c r="H88" t="str">
-        <f>_xlfn.XLOOKUP(G88,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G88,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>LY</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="4">
         <v>4</v>
       </c>
       <c r="C89">
@@ -5785,15 +6049,15 @@
         <v>LIE</v>
       </c>
       <c r="H89" t="str">
-        <f>_xlfn.XLOOKUP(G89,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G89,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>LI</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="4">
         <v>4</v>
       </c>
       <c r="C90">
@@ -5813,15 +6077,15 @@
         <v>LTU</v>
       </c>
       <c r="H90" t="str">
-        <f>_xlfn.XLOOKUP(G90,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G90,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>LT</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="4">
         <v>4</v>
       </c>
       <c r="C91">
@@ -5841,15 +6105,15 @@
         <v>LUX</v>
       </c>
       <c r="H91" t="str">
-        <f>_xlfn.XLOOKUP(G91,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G91,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>LU</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>4</v>
       </c>
       <c r="C92">
@@ -5869,15 +6133,15 @@
         <v>MKD</v>
       </c>
       <c r="H92" t="str">
-        <f>_xlfn.XLOOKUP(G92,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G92,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MK</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="4">
         <v>3</v>
       </c>
       <c r="C93">
@@ -5897,15 +6161,15 @@
         <v>MDG</v>
       </c>
       <c r="H93" t="str">
-        <f>_xlfn.XLOOKUP(G93,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G93,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MG</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="4">
         <v>3</v>
       </c>
       <c r="C94">
@@ -5925,15 +6189,15 @@
         <v>MWI</v>
       </c>
       <c r="H94" t="str">
-        <f>_xlfn.XLOOKUP(G94,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G94,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MW</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <v>6</v>
       </c>
       <c r="C95">
@@ -5949,11 +6213,11 @@
         <v>1122454000000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="4">
         <v>6</v>
       </c>
       <c r="C96">
@@ -5973,15 +6237,15 @@
         <v>MDV</v>
       </c>
       <c r="H96" t="str">
-        <f>_xlfn.XLOOKUP(G96,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G96,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MV</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="4">
         <v>3</v>
       </c>
       <c r="C97">
@@ -6001,15 +6265,15 @@
         <v>MLI</v>
       </c>
       <c r="H97" t="str">
-        <f>_xlfn.XLOOKUP(G97,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G97,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>ML</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="4">
         <v>4</v>
       </c>
       <c r="C98">
@@ -6029,11 +6293,11 @@
         <v>MLT</v>
       </c>
       <c r="H98" t="str">
-        <f>_xlfn.XLOOKUP(G98,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G98,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MT</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -6057,15 +6321,15 @@
         <v>MHL</v>
       </c>
       <c r="H99" t="str">
-        <f>_xlfn.XLOOKUP(G99,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G99,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MH</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="4">
         <v>3</v>
       </c>
       <c r="C100">
@@ -6085,15 +6349,15 @@
         <v>MRT</v>
       </c>
       <c r="H100" t="str">
-        <f>_xlfn.XLOOKUP(G100,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G100,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MR</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="4">
         <v>3</v>
       </c>
       <c r="C101">
@@ -6113,15 +6377,15 @@
         <v>MUS</v>
       </c>
       <c r="H101" t="str">
-        <f>_xlfn.XLOOKUP(G101,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G101,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MU</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="4">
         <v>2</v>
       </c>
       <c r="C102">
@@ -6141,11 +6405,11 @@
         <v>MEX</v>
       </c>
       <c r="H102" t="str">
-        <f>_xlfn.XLOOKUP(G102,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G102,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MX</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -6169,15 +6433,15 @@
         <v>FSM</v>
       </c>
       <c r="H103" t="str">
-        <f>_xlfn.XLOOKUP(G103,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G103,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>FM</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="4">
         <v>5</v>
       </c>
       <c r="C104">
@@ -6197,15 +6461,15 @@
         <v>MDA</v>
       </c>
       <c r="H104" t="str">
-        <f>_xlfn.XLOOKUP(G104,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G104,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MD</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="4">
         <v>4</v>
       </c>
       <c r="C105">
@@ -6225,15 +6489,15 @@
         <v>MCO</v>
       </c>
       <c r="H105" t="str">
-        <f>_xlfn.XLOOKUP(G105,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G105,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MC</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="4">
         <v>6</v>
       </c>
       <c r="C106">
@@ -6253,15 +6517,15 @@
         <v>MNG</v>
       </c>
       <c r="H106" t="str">
-        <f>_xlfn.XLOOKUP(G106,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G106,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MN</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="4">
         <v>4</v>
       </c>
       <c r="C107">
@@ -6281,15 +6545,15 @@
         <v>MNE</v>
       </c>
       <c r="H107" t="str">
-        <f>_xlfn.XLOOKUP(G107,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G107,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>ME</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="4">
         <v>3</v>
       </c>
       <c r="C108">
@@ -6309,15 +6573,15 @@
         <v>MAR</v>
       </c>
       <c r="H108" t="str">
-        <f>_xlfn.XLOOKUP(G108,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G108,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MA</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="4">
         <v>3</v>
       </c>
       <c r="C109">
@@ -6337,15 +6601,15 @@
         <v>MOZ</v>
       </c>
       <c r="H109" t="str">
-        <f>_xlfn.XLOOKUP(G109,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G109,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MZ</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="4">
         <v>6</v>
       </c>
       <c r="C110">
@@ -6365,15 +6629,15 @@
         <v>MMR</v>
       </c>
       <c r="H110" t="str">
-        <f>_xlfn.XLOOKUP(G110,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G110,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>MM</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="4">
         <v>3</v>
       </c>
       <c r="C111">
@@ -6393,15 +6657,15 @@
         <v>NAM</v>
       </c>
       <c r="H111" t="str">
-        <f>_xlfn.XLOOKUP(G111,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G111,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="4">
         <v>7</v>
       </c>
       <c r="C112">
@@ -6421,15 +6685,15 @@
         <v>NRU</v>
       </c>
       <c r="H112" t="str">
-        <f>_xlfn.XLOOKUP(G112,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G112,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>NR</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="4">
         <v>6</v>
       </c>
       <c r="C113">
@@ -6449,15 +6713,15 @@
         <v>NPL</v>
       </c>
       <c r="H113" t="str">
-        <f>_xlfn.XLOOKUP(G113,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G113,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>NP</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="4">
         <v>4</v>
       </c>
       <c r="C114">
@@ -6477,11 +6741,11 @@
         <v>NLD</v>
       </c>
       <c r="H114" t="str">
-        <f>_xlfn.XLOOKUP(G114,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G114,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>NL</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -6505,15 +6769,15 @@
         <v>NZL</v>
       </c>
       <c r="H115" t="str">
-        <f>_xlfn.XLOOKUP(G115,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G115,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>NZ</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="4">
         <v>2</v>
       </c>
       <c r="C116">
@@ -6533,15 +6797,15 @@
         <v>NIC</v>
       </c>
       <c r="H116" t="str">
-        <f>_xlfn.XLOOKUP(G116,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G116,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>NI</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="4">
         <v>3</v>
       </c>
       <c r="C117">
@@ -6561,15 +6825,15 @@
         <v>NER</v>
       </c>
       <c r="H117" t="str">
-        <f>_xlfn.XLOOKUP(G117,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G117,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>NE</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="4">
         <v>3</v>
       </c>
       <c r="C118">
@@ -6589,15 +6853,15 @@
         <v>NGA</v>
       </c>
       <c r="H118" t="str">
-        <f>_xlfn.XLOOKUP(G118,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G118,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>NG</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <v>6</v>
       </c>
       <c r="C119">
@@ -6617,15 +6881,15 @@
         <v>PRK</v>
       </c>
       <c r="H119" t="str">
-        <f>_xlfn.XLOOKUP(G119,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G119,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>KP</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="4">
         <v>4</v>
       </c>
       <c r="C120">
@@ -6645,15 +6909,15 @@
         <v>NOR</v>
       </c>
       <c r="H120" t="str">
-        <f>_xlfn.XLOOKUP(G120,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G120,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>124</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="4">
         <v>6</v>
       </c>
       <c r="C121">
@@ -6673,15 +6937,15 @@
         <v>PAK</v>
       </c>
       <c r="H121" t="str">
-        <f>_xlfn.XLOOKUP(G121,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G121,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>PK</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="4">
         <v>7</v>
       </c>
       <c r="C122">
@@ -6701,15 +6965,15 @@
         <v>PLW</v>
       </c>
       <c r="H122" t="str">
-        <f>_xlfn.XLOOKUP(G122,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G122,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>PW</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <v>6</v>
       </c>
       <c r="C123">
@@ -6729,15 +6993,15 @@
         <v>PNG</v>
       </c>
       <c r="H123" t="str">
-        <f>_xlfn.XLOOKUP(G123,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G123,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>PG</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="4">
         <v>2</v>
       </c>
       <c r="C124">
@@ -6757,15 +7021,15 @@
         <v>PRY</v>
       </c>
       <c r="H124" t="str">
-        <f>_xlfn.XLOOKUP(G124,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G124,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>PY</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="4">
         <v>2</v>
       </c>
       <c r="C125">
@@ -6785,15 +7049,15 @@
         <v>PER</v>
       </c>
       <c r="H125" t="str">
-        <f>_xlfn.XLOOKUP(G125,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G125,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>PE</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="4">
         <v>6</v>
       </c>
       <c r="C126">
@@ -6813,15 +7077,15 @@
         <v>PHL</v>
       </c>
       <c r="H126" t="str">
-        <f>_xlfn.XLOOKUP(G126,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G126,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>PH</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>130</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="4">
         <v>4</v>
       </c>
       <c r="C127">
@@ -6841,15 +7105,15 @@
         <v>POL</v>
       </c>
       <c r="H127" t="str">
-        <f>_xlfn.XLOOKUP(G127,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G127,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>PL</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>131</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="4">
         <v>4</v>
       </c>
       <c r="C128">
@@ -6869,15 +7133,15 @@
         <v>PRT</v>
       </c>
       <c r="H128" t="str">
-        <f>_xlfn.XLOOKUP(G128,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G128,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>PT</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>132</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="4">
         <v>4</v>
       </c>
       <c r="C129">
@@ -6897,11 +7161,11 @@
         <v>ROU</v>
       </c>
       <c r="H129" t="str">
-        <f>_xlfn.XLOOKUP(G129,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G129,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>RO</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -6925,15 +7189,15 @@
         <v>RUS</v>
       </c>
       <c r="H130" t="str">
-        <f>_xlfn.XLOOKUP(G130,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G130,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>RU</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="4">
         <v>3</v>
       </c>
       <c r="C131">
@@ -6953,15 +7217,15 @@
         <v>RWA</v>
       </c>
       <c r="H131" t="str">
-        <f>_xlfn.XLOOKUP(G131,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G131,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>RW</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>135</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="4">
         <v>7</v>
       </c>
       <c r="C132">
@@ -6981,11 +7245,11 @@
         <v>WSM</v>
       </c>
       <c r="H132" t="str">
-        <f>_xlfn.XLOOKUP(G132,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G132,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>WS</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -7009,15 +7273,15 @@
         <v>STP</v>
       </c>
       <c r="H133" t="str">
-        <f>_xlfn.XLOOKUP(G133,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G133,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>ST</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>137</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="4">
         <v>3</v>
       </c>
       <c r="C134">
@@ -7033,11 +7297,11 @@
         <v>33498000000</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>138</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="4">
         <v>4</v>
       </c>
       <c r="C135">
@@ -7057,15 +7321,15 @@
         <v>SRB</v>
       </c>
       <c r="H135" t="str">
-        <f>_xlfn.XLOOKUP(G135,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G135,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>RS</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>139</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="4">
         <v>3</v>
       </c>
       <c r="C136">
@@ -7085,11 +7349,11 @@
         <v>SYC</v>
       </c>
       <c r="H136" t="str">
-        <f>_xlfn.XLOOKUP(G136,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G136,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SC</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -7113,15 +7377,15 @@
         <v>SLE</v>
       </c>
       <c r="H137" t="str">
-        <f>_xlfn.XLOOKUP(G137,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G137,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SL</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>141</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>4</v>
       </c>
       <c r="C138">
@@ -7141,15 +7405,15 @@
         <v>SVK</v>
       </c>
       <c r="H138" t="str">
-        <f>_xlfn.XLOOKUP(G138,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G138,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SK</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>142</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="4">
         <v>4</v>
       </c>
       <c r="C139">
@@ -7169,15 +7433,15 @@
         <v>SVN</v>
       </c>
       <c r="H139" t="str">
-        <f>_xlfn.XLOOKUP(G139,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G139,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SI</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>143</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <v>7</v>
       </c>
       <c r="C140">
@@ -7197,15 +7461,15 @@
         <v>SLB</v>
       </c>
       <c r="H140" t="str">
-        <f>_xlfn.XLOOKUP(G140,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G140,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SB</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>144</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="4">
         <v>3</v>
       </c>
       <c r="C141">
@@ -7225,15 +7489,15 @@
         <v>SOM</v>
       </c>
       <c r="H141" t="str">
-        <f>_xlfn.XLOOKUP(G141,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G141,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SO</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>145</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>3</v>
       </c>
       <c r="C142">
@@ -7253,11 +7517,11 @@
         <v>ZAF</v>
       </c>
       <c r="H142" t="str">
-        <f>_xlfn.XLOOKUP(G142,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G142,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>ZA</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -7281,15 +7545,15 @@
         <v>KOR</v>
       </c>
       <c r="H143" t="str">
-        <f>_xlfn.XLOOKUP(G143,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G143,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>KR</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>147</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>3</v>
       </c>
       <c r="C144">
@@ -7309,11 +7573,11 @@
         <v>SSD</v>
       </c>
       <c r="H144" t="str">
-        <f>_xlfn.XLOOKUP(G144,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G144,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SS</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -7337,15 +7601,15 @@
         <v>ESP</v>
       </c>
       <c r="H145" t="str">
-        <f>_xlfn.XLOOKUP(G145,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G145,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>ES</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>149</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>6</v>
       </c>
       <c r="C146">
@@ -7365,15 +7629,15 @@
         <v>LKA</v>
       </c>
       <c r="H146" t="str">
-        <f>_xlfn.XLOOKUP(G146,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G146,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>LK</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>150</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="4">
         <v>3</v>
       </c>
       <c r="C147">
@@ -7393,15 +7657,15 @@
         <v>SDN</v>
       </c>
       <c r="H147" t="str">
-        <f>_xlfn.XLOOKUP(G147,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G147,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SD</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>151</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="4">
         <v>2</v>
       </c>
       <c r="C148">
@@ -7421,11 +7685,11 @@
         <v>SUR</v>
       </c>
       <c r="H148" t="str">
-        <f>_xlfn.XLOOKUP(G148,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G148,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SR</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -7449,15 +7713,15 @@
         <v>SWZ</v>
       </c>
       <c r="H149" t="str">
-        <f>_xlfn.XLOOKUP(G149,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G149,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SZ</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>153</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="4">
         <v>4</v>
       </c>
       <c r="C150">
@@ -7477,11 +7741,11 @@
         <v>SWE</v>
       </c>
       <c r="H150" t="str">
-        <f>_xlfn.XLOOKUP(G150,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G150,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SE</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -7505,15 +7769,15 @@
         <v>CHE</v>
       </c>
       <c r="H151" t="str">
-        <f>_xlfn.XLOOKUP(G151,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G151,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>CH</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>155</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>5</v>
       </c>
       <c r="C152">
@@ -7533,15 +7797,15 @@
         <v>SYR</v>
       </c>
       <c r="H152" t="str">
-        <f>_xlfn.XLOOKUP(G152,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G152,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>SY</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="4">
         <v>6</v>
       </c>
       <c r="C153">
@@ -7560,15 +7824,15 @@
         <v>179</v>
       </c>
       <c r="H153" t="str">
-        <f>_xlfn.XLOOKUP(G153,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G153,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TW</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>157</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="4">
         <v>5</v>
       </c>
       <c r="C154">
@@ -7588,15 +7852,15 @@
         <v>TJK</v>
       </c>
       <c r="H154" t="str">
-        <f>_xlfn.XLOOKUP(G154,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G154,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TJ</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="4">
         <v>3</v>
       </c>
       <c r="C155">
@@ -7616,15 +7880,15 @@
         <v>TZA</v>
       </c>
       <c r="H155" t="str">
-        <f>_xlfn.XLOOKUP(G155,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G155,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TZ</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>159</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="4">
         <v>6</v>
       </c>
       <c r="C156">
@@ -7644,15 +7908,15 @@
         <v>THA</v>
       </c>
       <c r="H156" t="str">
-        <f>_xlfn.XLOOKUP(G156,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G156,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TH</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="4">
         <v>3</v>
       </c>
       <c r="C157">
@@ -7672,15 +7936,15 @@
         <v>TGO</v>
       </c>
       <c r="H157" t="str">
-        <f>_xlfn.XLOOKUP(G157,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G157,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TG</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>161</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="4">
         <v>7</v>
       </c>
       <c r="C158">
@@ -7700,15 +7964,15 @@
         <v>TON</v>
       </c>
       <c r="H158" t="str">
-        <f>_xlfn.XLOOKUP(G158,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G158,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TO</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>162</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="4">
         <v>3</v>
       </c>
       <c r="C159">
@@ -7728,15 +7992,15 @@
         <v>TUN</v>
       </c>
       <c r="H159" t="str">
-        <f>_xlfn.XLOOKUP(G159,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G159,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TN</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>163</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>4</v>
       </c>
       <c r="C160">
@@ -7756,15 +8020,15 @@
         <v>TUR</v>
       </c>
       <c r="H160" t="str">
-        <f>_xlfn.XLOOKUP(G160,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G160,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TR</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>164</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="4">
         <v>5</v>
       </c>
       <c r="C161">
@@ -7784,15 +8048,15 @@
         <v>TKM</v>
       </c>
       <c r="H161" t="str">
-        <f>_xlfn.XLOOKUP(G161,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G161,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TM</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>165</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="4">
         <v>7</v>
       </c>
       <c r="C162">
@@ -7812,15 +8076,15 @@
         <v>TUV</v>
       </c>
       <c r="H162" t="str">
-        <f>_xlfn.XLOOKUP(G162,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G162,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>TV</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>166</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="4">
         <v>3</v>
       </c>
       <c r="C163">
@@ -7840,15 +8104,15 @@
         <v>UGA</v>
       </c>
       <c r="H163" t="str">
-        <f>_xlfn.XLOOKUP(G163,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G163,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>UG</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>167</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="4">
         <v>5</v>
       </c>
       <c r="C164">
@@ -7868,15 +8132,15 @@
         <v>UKR</v>
       </c>
       <c r="H164" t="str">
-        <f>_xlfn.XLOOKUP(G164,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G164,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>UA</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>168</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="4">
         <v>2</v>
       </c>
       <c r="C165">
@@ -7896,15 +8160,15 @@
         <v>URY</v>
       </c>
       <c r="H165" t="str">
-        <f>_xlfn.XLOOKUP(G165,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G165,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>UY</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>169</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="4">
         <v>1</v>
       </c>
       <c r="C166">
@@ -7924,15 +8188,15 @@
         <v>USA</v>
       </c>
       <c r="H166" t="str">
-        <f>_xlfn.XLOOKUP(G166,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G166,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>US</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>170</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="4">
         <v>5</v>
       </c>
       <c r="C167">
@@ -7952,15 +8216,15 @@
         <v>UZB</v>
       </c>
       <c r="H167" t="str">
-        <f>_xlfn.XLOOKUP(G167,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G167,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>UZ</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>171</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="4">
         <v>7</v>
       </c>
       <c r="C168">
@@ -7980,11 +8244,11 @@
         <v>VUT</v>
       </c>
       <c r="H168" t="str">
-        <f>_xlfn.XLOOKUP(G168,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G168,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>VU</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -8008,15 +8272,15 @@
         <v>VEN</v>
       </c>
       <c r="H169" t="str">
-        <f>_xlfn.XLOOKUP(G169,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G169,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>VE</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>173</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="4">
         <v>6</v>
       </c>
       <c r="C170">
@@ -8036,11 +8300,11 @@
         <v>VNM</v>
       </c>
       <c r="H170" t="str">
-        <f>_xlfn.XLOOKUP(G170,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G170,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>VN</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -8064,15 +8328,15 @@
         <v>YEM</v>
       </c>
       <c r="H171" t="str">
-        <f>_xlfn.XLOOKUP(G171,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G171,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>YE</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>175</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="4">
         <v>3</v>
       </c>
       <c r="C172">
@@ -8092,15 +8356,15 @@
         <v>ZMB</v>
       </c>
       <c r="H172" t="str">
-        <f>_xlfn.XLOOKUP(G172,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G172,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>ZM</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>176</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="4">
         <v>3</v>
       </c>
       <c r="C173">
@@ -8120,38 +8384,47 @@
         <v>ZWE</v>
       </c>
       <c r="H173" t="str">
-        <f>_xlfn.XLOOKUP(G173,Sheet2!$C$2:$C$250,Sheet2!$B$2:$B$250)</f>
+        <f>_xlfn.XLOOKUP(G173,'Country codes'!$C$2:$C$250,'Country codes'!$B$2:$B$250)</f>
         <v>ZW</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B174" s="7"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B175" s="8"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B176" s="7"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B177" s="9"/>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="3"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A1BE98-1FC7-45E1-9F3A-00543C6BF035}">
   <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D250"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -8165,7 +8438,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -8179,7 +8452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -8193,7 +8466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -8207,7 +8480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -8221,7 +8494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -8235,7 +8508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -8249,7 +8522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -8263,7 +8536,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -8277,7 +8550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -8291,7 +8564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -8305,7 +8578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -8319,7 +8592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>218</v>
       </c>
@@ -8333,7 +8606,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>221</v>
       </c>
@@ -8347,7 +8620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -8361,7 +8634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>227</v>
       </c>
@@ -8375,7 +8648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -8389,7 +8662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>233</v>
       </c>
@@ -8403,7 +8676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -8417,7 +8690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>239</v>
       </c>
@@ -8431,7 +8704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>242</v>
       </c>
@@ -8445,7 +8718,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>245</v>
       </c>
@@ -8459,7 +8732,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>248</v>
       </c>
@@ -8473,7 +8746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -8487,7 +8760,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>254</v>
       </c>
@@ -8501,7 +8774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>257</v>
       </c>
@@ -8515,7 +8788,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>260</v>
       </c>
@@ -8529,7 +8802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -8543,7 +8816,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>266</v>
       </c>
@@ -8557,7 +8830,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>269</v>
       </c>
@@ -8571,7 +8844,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>272</v>
       </c>
@@ -8585,7 +8858,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>275</v>
       </c>
@@ -8599,7 +8872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>278</v>
       </c>
@@ -8613,7 +8886,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -8627,7 +8900,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>284</v>
       </c>
@@ -8641,7 +8914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>287</v>
       </c>
@@ -8655,7 +8928,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>290</v>
       </c>
@@ -8669,7 +8942,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -8683,7 +8956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>296</v>
       </c>
@@ -8697,7 +8970,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>299</v>
       </c>
@@ -8711,7 +8984,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>302</v>
       </c>
@@ -8725,7 +8998,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>305</v>
       </c>
@@ -8739,7 +9012,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>308</v>
       </c>
@@ -8753,7 +9026,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>311</v>
       </c>
@@ -8767,7 +9040,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>314</v>
       </c>
@@ -8781,7 +9054,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>317</v>
       </c>
@@ -8795,7 +9068,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>320</v>
       </c>
@@ -8809,7 +9082,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>323</v>
       </c>
@@ -8823,7 +9096,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>326</v>
       </c>
@@ -8837,7 +9110,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>329</v>
       </c>
@@ -8851,7 +9124,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>332</v>
       </c>
@@ -8865,7 +9138,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>335</v>
       </c>
@@ -8879,7 +9152,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>338</v>
       </c>
@@ -8893,7 +9166,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>341</v>
       </c>
@@ -8907,7 +9180,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>344</v>
       </c>
@@ -8921,7 +9194,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>347</v>
       </c>
@@ -8935,7 +9208,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>350</v>
       </c>
@@ -8949,7 +9222,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>353</v>
       </c>
@@ -8963,7 +9236,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>356</v>
       </c>
@@ -8977,7 +9250,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>359</v>
       </c>
@@ -8991,7 +9264,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>362</v>
       </c>
@@ -9005,7 +9278,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>365</v>
       </c>
@@ -9019,7 +9292,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>368</v>
       </c>
@@ -9033,7 +9306,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>371</v>
       </c>
@@ -9047,7 +9320,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>374</v>
       </c>
@@ -9061,7 +9334,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>377</v>
       </c>
@@ -9075,7 +9348,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>380</v>
       </c>
@@ -9089,7 +9362,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>383</v>
       </c>
@@ -9103,7 +9376,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>386</v>
       </c>
@@ -9117,7 +9390,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>389</v>
       </c>
@@ -9131,7 +9404,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>392</v>
       </c>
@@ -9145,7 +9418,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>395</v>
       </c>
@@ -9159,7 +9432,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>398</v>
       </c>
@@ -9173,7 +9446,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>401</v>
       </c>
@@ -9187,7 +9460,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>404</v>
       </c>
@@ -9201,7 +9474,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>407</v>
       </c>
@@ -9215,7 +9488,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>410</v>
       </c>
@@ -9229,7 +9502,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>413</v>
       </c>
@@ -9243,7 +9516,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>416</v>
       </c>
@@ -9257,7 +9530,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>419</v>
       </c>
@@ -9271,7 +9544,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>422</v>
       </c>
@@ -9285,7 +9558,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>425</v>
       </c>
@@ -9299,7 +9572,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>428</v>
       </c>
@@ -9313,7 +9586,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>431</v>
       </c>
@@ -9327,7 +9600,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>434</v>
       </c>
@@ -9341,7 +9614,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>437</v>
       </c>
@@ -9355,7 +9628,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>440</v>
       </c>
@@ -9369,7 +9642,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>443</v>
       </c>
@@ -9383,7 +9656,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>446</v>
       </c>
@@ -9397,7 +9670,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>449</v>
       </c>
@@ -9411,7 +9684,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>452</v>
       </c>
@@ -9425,7 +9698,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>455</v>
       </c>
@@ -9439,7 +9712,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>458</v>
       </c>
@@ -9453,7 +9726,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>461</v>
       </c>
@@ -9467,7 +9740,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>464</v>
       </c>
@@ -9481,7 +9754,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>467</v>
       </c>
@@ -9495,7 +9768,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>470</v>
       </c>
@@ -9509,7 +9782,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>473</v>
       </c>
@@ -9523,7 +9796,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>476</v>
       </c>
@@ -9537,7 +9810,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>479</v>
       </c>
@@ -9551,7 +9824,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>482</v>
       </c>
@@ -9565,7 +9838,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>485</v>
       </c>
@@ -9579,7 +9852,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>488</v>
       </c>
@@ -9593,7 +9866,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>491</v>
       </c>
@@ -9607,7 +9880,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>494</v>
       </c>
@@ -9621,7 +9894,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>497</v>
       </c>
@@ -9635,7 +9908,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>500</v>
       </c>
@@ -9649,7 +9922,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>503</v>
       </c>
@@ -9663,7 +9936,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>506</v>
       </c>
@@ -9677,7 +9950,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>509</v>
       </c>
@@ -9691,7 +9964,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>512</v>
       </c>
@@ -9705,7 +9978,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>515</v>
       </c>
@@ -9719,7 +9992,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>518</v>
       </c>
@@ -9733,7 +10006,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>521</v>
       </c>
@@ -9747,7 +10020,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>524</v>
       </c>
@@ -9761,7 +10034,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>527</v>
       </c>
@@ -9775,7 +10048,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>530</v>
       </c>
@@ -9789,7 +10062,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>533</v>
       </c>
@@ -9803,7 +10076,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>536</v>
       </c>
@@ -9817,7 +10090,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>539</v>
       </c>
@@ -9831,7 +10104,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>542</v>
       </c>
@@ -9845,7 +10118,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>545</v>
       </c>
@@ -9859,7 +10132,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>548</v>
       </c>
@@ -9873,7 +10146,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>551</v>
       </c>
@@ -9887,7 +10160,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>554</v>
       </c>
@@ -9901,7 +10174,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>557</v>
       </c>
@@ -9915,7 +10188,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>560</v>
       </c>
@@ -9929,7 +10202,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>563</v>
       </c>
@@ -9943,7 +10216,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>566</v>
       </c>
@@ -9957,7 +10230,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>569</v>
       </c>
@@ -9971,7 +10244,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>572</v>
       </c>
@@ -9985,7 +10258,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>575</v>
       </c>
@@ -9999,7 +10272,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>578</v>
       </c>
@@ -10013,7 +10286,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>581</v>
       </c>
@@ -10027,7 +10300,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>584</v>
       </c>
@@ -10041,7 +10314,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>587</v>
       </c>
@@ -10055,7 +10328,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>590</v>
       </c>
@@ -10069,7 +10342,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>593</v>
       </c>
@@ -10083,7 +10356,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>596</v>
       </c>
@@ -10097,7 +10370,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>599</v>
       </c>
@@ -10111,7 +10384,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>602</v>
       </c>
@@ -10125,7 +10398,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>605</v>
       </c>
@@ -10139,7 +10412,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>608</v>
       </c>
@@ -10153,7 +10426,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>611</v>
       </c>
@@ -10167,7 +10440,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>614</v>
       </c>
@@ -10181,7 +10454,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>617</v>
       </c>
@@ -10195,7 +10468,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>620</v>
       </c>
@@ -10209,7 +10482,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>623</v>
       </c>
@@ -10223,7 +10496,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>626</v>
       </c>
@@ -10237,7 +10510,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>629</v>
       </c>
@@ -10251,7 +10524,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>632</v>
       </c>
@@ -10265,7 +10538,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>635</v>
       </c>
@@ -10279,7 +10552,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>638</v>
       </c>
@@ -10293,7 +10566,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>641</v>
       </c>
@@ -10307,7 +10580,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>644</v>
       </c>
@@ -10321,7 +10594,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>647</v>
       </c>
@@ -10335,7 +10608,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>650</v>
       </c>
@@ -10349,7 +10622,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>653</v>
       </c>
@@ -10363,7 +10636,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>656</v>
       </c>
@@ -10377,7 +10650,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>659</v>
       </c>
@@ -10391,7 +10664,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>662</v>
       </c>
@@ -10405,7 +10678,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>665</v>
       </c>
@@ -10419,7 +10692,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>668</v>
       </c>
@@ -10433,7 +10706,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>671</v>
       </c>
@@ -10447,7 +10720,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>674</v>
       </c>
@@ -10461,7 +10734,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>677</v>
       </c>
@@ -10475,7 +10748,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>680</v>
       </c>
@@ -10489,7 +10762,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>683</v>
       </c>
@@ -10503,7 +10776,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>686</v>
       </c>
@@ -10517,7 +10790,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>689</v>
       </c>
@@ -10531,7 +10804,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>692</v>
       </c>
@@ -10545,7 +10818,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>695</v>
       </c>
@@ -10559,7 +10832,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>698</v>
       </c>
@@ -10573,7 +10846,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>701</v>
       </c>
@@ -10587,7 +10860,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>704</v>
       </c>
@@ -10601,7 +10874,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>707</v>
       </c>
@@ -10615,7 +10888,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>710</v>
       </c>
@@ -10629,7 +10902,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>713</v>
       </c>
@@ -10643,7 +10916,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>716</v>
       </c>
@@ -10657,7 +10930,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>719</v>
       </c>
@@ -10671,7 +10944,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>722</v>
       </c>
@@ -10685,7 +10958,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>725</v>
       </c>
@@ -10699,7 +10972,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>728</v>
       </c>
@@ -10713,7 +10986,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>731</v>
       </c>
@@ -10727,7 +11000,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>734</v>
       </c>
@@ -10741,7 +11014,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>737</v>
       </c>
@@ -10755,7 +11028,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>740</v>
       </c>
@@ -10769,7 +11042,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>743</v>
       </c>
@@ -10783,7 +11056,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>746</v>
       </c>
@@ -10797,7 +11070,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>749</v>
       </c>
@@ -10811,7 +11084,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>752</v>
       </c>
@@ -10825,7 +11098,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>755</v>
       </c>
@@ -10839,7 +11112,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>758</v>
       </c>
@@ -10853,7 +11126,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>761</v>
       </c>
@@ -10867,7 +11140,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>764</v>
       </c>
@@ -10881,7 +11154,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>767</v>
       </c>
@@ -10895,7 +11168,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>770</v>
       </c>
@@ -10909,7 +11182,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>773</v>
       </c>
@@ -10923,7 +11196,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>776</v>
       </c>
@@ -10937,7 +11210,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>779</v>
       </c>
@@ -10951,7 +11224,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>782</v>
       </c>
@@ -10965,7 +11238,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>785</v>
       </c>
@@ -10979,7 +11252,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>788</v>
       </c>
@@ -10993,7 +11266,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>791</v>
       </c>
@@ -11007,7 +11280,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>794</v>
       </c>
@@ -11021,7 +11294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>797</v>
       </c>
@@ -11035,7 +11308,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>800</v>
       </c>
@@ -11049,7 +11322,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>803</v>
       </c>
@@ -11063,7 +11336,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>806</v>
       </c>
@@ -11077,7 +11350,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>809</v>
       </c>
@@ -11091,7 +11364,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>812</v>
       </c>
@@ -11105,7 +11378,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>815</v>
       </c>
@@ -11119,7 +11392,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>818</v>
       </c>
@@ -11133,7 +11406,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>821</v>
       </c>
@@ -11147,7 +11420,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>824</v>
       </c>
@@ -11161,7 +11434,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>827</v>
       </c>
@@ -11175,7 +11448,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>830</v>
       </c>
@@ -11189,7 +11462,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>833</v>
       </c>
@@ -11203,7 +11476,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>835</v>
       </c>
@@ -11217,7 +11490,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>838</v>
       </c>
@@ -11231,7 +11504,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>841</v>
       </c>
@@ -11245,7 +11518,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>844</v>
       </c>
@@ -11259,7 +11532,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>847</v>
       </c>
@@ -11273,7 +11546,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>850</v>
       </c>
@@ -11287,7 +11560,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>853</v>
       </c>
@@ -11301,7 +11574,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>856</v>
       </c>
@@ -11315,7 +11588,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>859</v>
       </c>
@@ -11329,7 +11602,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>862</v>
       </c>
@@ -11343,7 +11616,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>865</v>
       </c>
@@ -11357,7 +11630,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>868</v>
       </c>
@@ -11371,7 +11644,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>871</v>
       </c>
@@ -11385,7 +11658,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>874</v>
       </c>
@@ -11399,7 +11672,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>877</v>
       </c>
@@ -11413,7 +11686,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>880</v>
       </c>
@@ -11427,7 +11700,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>883</v>
       </c>
@@ -11441,7 +11714,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>886</v>
       </c>
@@ -11455,7 +11728,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>889</v>
       </c>
@@ -11469,7 +11742,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>892</v>
       </c>
@@ -11483,7 +11756,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>895</v>
       </c>
@@ -11497,7 +11770,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>898</v>
       </c>
@@ -11511,7 +11784,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>901</v>
       </c>
@@ -11525,7 +11798,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>904</v>
       </c>
@@ -11539,7 +11812,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>907</v>
       </c>
@@ -11553,7 +11826,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>910</v>
       </c>
@@ -11567,7 +11840,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>913</v>
       </c>
@@ -11581,7 +11854,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>916</v>
       </c>
@@ -11595,7 +11868,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>919</v>
       </c>
@@ -11609,7 +11882,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>922</v>
       </c>
@@ -11623,7 +11896,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>925</v>
       </c>
@@ -11637,7 +11910,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>928</v>
       </c>
